--- a/Configs/GeneralSettings.xlsx
+++ b/Configs/GeneralSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA79F177-927E-45C9-9253-7E1F497AF1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F984ADF-2E65-434A-A8C0-E4921715F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1958" yWindow="2160" windowWidth="21600" windowHeight="11873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="3697" windowWidth="12660" windowHeight="12908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -445,10 +445,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>3</v>

--- a/Configs/GeneralSettings.xlsx
+++ b/Configs/GeneralSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F984ADF-2E65-434A-A8C0-E4921715F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC245C4-4AB0-4981-BE00-93972FAB0685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="3697" windowWidth="12660" windowHeight="12908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>玩家初始声望值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,34 @@
   </si>
   <si>
     <t>signTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始药材列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始药材重量列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialHerbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialHerbsWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1002,1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50,50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,8 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -385,20 +414,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.06640625" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+    <col min="5" max="5" width="20.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.06640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -411,8 +443,14 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -425,8 +463,14 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -439,8 +483,14 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -452,6 +502,12 @@
       </c>
       <c r="D4">
         <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GeneralSettings.xlsx
+++ b/Configs/GeneralSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC245C4-4AB0-4981-BE00-93972FAB0685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F7A213-1F3A-487F-886D-1A232A3EFC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10425" yWindow="2550" windowWidth="16583" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,11 +83,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001,1002,1013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,50,50</t>
+    <t>1001,1002,1003,1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,60,60,60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Configs/GeneralSettings.xlsx
+++ b/Configs/GeneralSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F7A213-1F3A-487F-886D-1A232A3EFC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B6B170-6215-4099-8DBF-7960E0DF73FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10425" yWindow="2550" windowWidth="16583" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2377" windowWidth="24622" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60,60,60,60</t>
+    <t>100,100,100,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -498,7 +498,7 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>3</v>
